--- a/Project/Project-DEMOQA/TEST-CASE.xlsx
+++ b/Project/Project-DEMOQA/TEST-CASE.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-Demoqa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5994DB-2561-4E42-9913-A7C5E8794906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E42FCB-415D-4256-8004-A89B983CAE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DD80AE0D-02D3-4D0E-B9E3-8BF527DAECCD}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST CASE" sheetId="2" r:id="rId1"/>
-    <sheet name="Defect-Report" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="526">
   <si>
     <t>Function ID</t>
   </si>
@@ -208,9 +207,6 @@
     <t>abcd</t>
   </si>
   <si>
-    <t>123@gmail.com</t>
-  </si>
-  <si>
     <t>3.4.1.6</t>
   </si>
   <si>
@@ -220,9 +216,6 @@
     <t xml:space="preserve">It take the digit </t>
   </si>
   <si>
-    <t>It take digit start from email</t>
-  </si>
-  <si>
     <t>It gives the error</t>
   </si>
   <si>
@@ -248,9 +241,6 @@
   </si>
   <si>
     <t>Step 1:enter email</t>
-  </si>
-  <si>
-    <t>Email start from char and if email start from digit so it give error</t>
   </si>
   <si>
     <t>Verify full name with invalid data</t>
@@ -272,18 +262,12 @@
 Step 3:click on submit</t>
   </si>
   <si>
-    <t>Email:123@gmail.com</t>
-  </si>
-  <si>
     <t>Verify address with invalid data</t>
   </si>
   <si>
     <t>Step 1:click on email text box  
 Step 2:enter address
 Step 3:click on submit</t>
-  </si>
-  <si>
-    <t>Address:123454656576879878674534</t>
   </si>
   <si>
     <t>Verify no</t>
@@ -782,9 +766,6 @@
     <t>It should close the form</t>
   </si>
   <si>
-    <t>It button is not work</t>
-  </si>
-  <si>
     <t>Verify alert,frame and windows</t>
   </si>
   <si>
@@ -1398,9 +1379,6 @@
   </si>
   <si>
     <t>Username:12</t>
-  </si>
-  <si>
-    <t>Pass:Kk@123456687353435638766</t>
   </si>
   <si>
     <t>It should take char,digit and special char and it provide range</t>
@@ -1438,9 +1416,6 @@
     <t>Name:12</t>
   </si>
   <si>
-    <t>pass:Kk@12345</t>
-  </si>
-  <si>
     <t>Step 2:enter password</t>
   </si>
   <si>
@@ -1458,10 +1433,6 @@
     <t>it consider all char or digit and it provide boundary values</t>
   </si>
   <si>
-    <t>Name:12
-Pass:Kk@12345</t>
-  </si>
-  <si>
     <t>Verify book store</t>
   </si>
   <si>
@@ -1669,6 +1640,31 @@
   </si>
   <si>
     <t>It should open the information related to web tables</t>
+  </si>
+  <si>
+    <t>Email:#$3@gmail.com</t>
+  </si>
+  <si>
+    <t>Address:#@%$#@&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>It store the email</t>
+  </si>
+  <si>
+    <t>It button is not show</t>
+  </si>
+  <si>
+    <t>Name:12
+Pass:Kk@12345678910abcdefg</t>
+  </si>
+  <si>
+    <t>pass:Kk@12345678910abcdefg</t>
+  </si>
+  <si>
+    <t>Pass:Kk@12345678910abcdefg</t>
   </si>
 </sst>
 </file>
@@ -1753,13 +1749,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2079,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32151F33-C3C2-4DB8-A02F-3BAA82429CCC}">
   <dimension ref="A1:K491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2129,13 +2125,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -2144,10 +2140,10 @@
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -2158,13 +2154,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -2173,10 +2169,10 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -2187,13 +2183,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -2202,39 +2198,39 @@
         <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>67</v>
+      <c r="H5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="K5" s="3"/>
     </row>
@@ -2246,13 +2242,13 @@
         <v>3.1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
@@ -2261,10 +2257,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -2275,16 +2271,16 @@
         <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>17</v>
@@ -2293,7 +2289,7 @@
         <v>18</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -2304,13 +2300,13 @@
         <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
@@ -2319,39 +2315,39 @@
         <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="C9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>68</v>
+      <c r="H9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -2362,13 +2358,13 @@
         <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>20</v>
@@ -2377,13 +2373,13 @@
         <v>23</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2391,16 +2387,16 @@
         <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>80</v>
+        <v>519</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>22</v>
@@ -2409,7 +2405,7 @@
         <v>24</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -2420,13 +2416,13 @@
         <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>21</v>
@@ -2435,10 +2431,10 @@
         <v>25</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -2449,13 +2445,13 @@
         <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
@@ -2464,10 +2460,10 @@
         <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -2478,13 +2474,13 @@
         <v>3.2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
@@ -2493,10 +2489,10 @@
         <v>32</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -2507,13 +2503,13 @@
         <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>36</v>
@@ -2522,10 +2518,10 @@
         <v>37</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -2536,13 +2532,13 @@
         <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
@@ -2551,10 +2547,10 @@
         <v>38</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -2565,13 +2561,13 @@
         <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
@@ -2580,10 +2576,10 @@
         <v>39</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -2594,13 +2590,13 @@
         <v>3.3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -2609,10 +2605,10 @@
         <v>40</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -2623,13 +2619,13 @@
         <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
@@ -2638,10 +2634,10 @@
         <v>44</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -2652,13 +2648,13 @@
         <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
@@ -2667,10 +2663,10 @@
         <v>45</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -2681,13 +2677,13 @@
         <v>43</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>12</v>
@@ -2699,7 +2695,7 @@
         <v>47</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -2710,25 +2706,25 @@
         <v>3.4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -2739,13 +2735,13 @@
         <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
@@ -2754,10 +2750,10 @@
         <v>49</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -2768,13 +2764,13 @@
         <v>52</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F24" s="4">
         <v>1234</v>
@@ -2783,10 +2779,10 @@
         <v>55</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -2797,13 +2793,13 @@
         <v>50</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F25" s="4">
         <v>1234</v>
@@ -2812,10 +2808,10 @@
         <v>55</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -2826,25 +2822,25 @@
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F26" s="1">
         <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -2855,54 +2851,54 @@
         <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="D28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>68</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -2913,25 +2909,25 @@
         <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F29" s="1">
         <v>12000</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -2942,25 +2938,25 @@
         <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -2968,28 +2964,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -2997,57 +2993,57 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F32" s="4">
         <v>1234</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="H33" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3055,28 +3051,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3084,28 +3080,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="H35" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3113,28 +3109,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3142,28 +3138,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3174,25 +3170,25 @@
         <v>3.5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3200,28 +3196,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3229,28 +3225,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3258,28 +3254,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3290,25 +3286,25 @@
         <v>3.6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3316,28 +3312,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3345,28 +3341,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3374,28 +3370,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3403,28 +3399,28 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3432,28 +3428,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3461,28 +3457,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3490,28 +3486,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3519,28 +3515,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3551,25 +3547,25 @@
         <v>3.7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3577,28 +3573,28 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3606,28 +3602,28 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3635,28 +3631,28 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3667,13 +3663,13 @@
         <v>3.8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>12</v>
@@ -3682,10 +3678,10 @@
         <v>40</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
@@ -3693,28 +3689,28 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3722,28 +3718,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3754,25 +3750,25 @@
         <v>3.9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3783,25 +3779,25 @@
         <v>4</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3812,25 +3808,25 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3841,25 +3837,25 @@
         <v>4.2</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="I61" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3870,25 +3866,25 @@
         <v>4.3</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3899,28 +3895,28 @@
         <v>4.3</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3928,25 +3924,25 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3957,25 +3953,25 @@
         <v>4.5</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -3986,25 +3982,25 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="116" x14ac:dyDescent="0.35">
@@ -4015,25 +4011,25 @@
         <v>4.7</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4044,25 +4040,25 @@
         <v>4.8</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4073,57 +4069,57 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="6">
         <v>4.0999999999999996</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4131,28 +4127,28 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4160,25 +4156,25 @@
         <v>4.12</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4189,25 +4185,25 @@
         <v>4.13</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>237</v>
+        <v>522</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4218,25 +4214,25 @@
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4247,25 +4243,25 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4273,28 +4269,28 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4302,28 +4298,28 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4331,28 +4327,28 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4363,25 +4359,25 @@
         <v>5.2</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4389,115 +4385,115 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="87" x14ac:dyDescent="0.35">
@@ -4508,25 +4504,25 @@
         <v>5.3</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4537,25 +4533,25 @@
         <v>5.4</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4566,25 +4562,25 @@
         <v>5.5</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4592,28 +4588,28 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4621,28 +4617,28 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4653,25 +4649,25 @@
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4682,25 +4678,25 @@
         <v>6.1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4711,25 +4707,25 @@
         <v>6.2</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4737,28 +4733,28 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="G92" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4766,28 +4762,28 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4798,25 +4794,25 @@
         <v>6.3</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4824,28 +4820,28 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4853,28 +4849,28 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4885,25 +4881,25 @@
         <v>6.4</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4914,25 +4910,25 @@
         <v>6.5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4940,28 +4936,28 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4972,25 +4968,25 @@
         <v>6.6</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -4998,28 +4994,28 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5027,28 +5023,28 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5056,28 +5052,28 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5085,28 +5081,28 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5117,25 +5113,25 @@
         <v>6.7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5143,28 +5139,28 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5172,28 +5168,28 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5201,28 +5197,28 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5233,13 +5229,13 @@
         <v>6.8</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>12</v>
@@ -5248,10 +5244,10 @@
         <v>40</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5262,25 +5258,25 @@
         <v>6.9</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5291,25 +5287,25 @@
         <v>7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5320,25 +5316,25 @@
         <v>7.1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5349,25 +5345,25 @@
         <v>7.2</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5378,25 +5374,25 @@
         <v>7.3</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5407,25 +5403,25 @@
         <v>7.4</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5433,28 +5429,28 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5462,28 +5458,28 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5491,28 +5487,28 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5520,28 +5516,28 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5552,25 +5548,25 @@
         <v>7.5</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5578,28 +5574,28 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5607,28 +5603,28 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5636,28 +5632,28 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5665,28 +5661,28 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5697,25 +5693,25 @@
         <v>8</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5726,25 +5722,25 @@
         <v>8.1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5752,28 +5748,28 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5781,28 +5777,28 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5810,28 +5806,28 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5839,28 +5835,28 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5868,28 +5864,28 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>440</v>
+        <v>525</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="87" x14ac:dyDescent="0.35">
@@ -5897,28 +5893,28 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5926,28 +5922,28 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5955,28 +5951,28 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -5984,28 +5980,28 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>451</v>
+        <v>524</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -6013,28 +6009,28 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>457</v>
+        <v>523</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -6045,25 +6041,25 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -6071,28 +6067,28 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -6100,28 +6096,28 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -6132,25 +6128,25 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -6158,28 +6154,28 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -6187,28 +6183,28 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -6216,28 +6212,28 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -6248,25 +6244,25 @@
         <v>8.4</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
@@ -10095,18 +10091,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54819C7E-1630-4B16-B356-4CFEE126A92C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>